--- a/Code/Results/Overview.xlsx
+++ b/Code/Results/Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24c4bf95f6187469/Uni/Speciale/Thesis/Code/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F843F348-9006-4D24-8E29-234216C4289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F898CBAB-DEC4-4EBA-B3E9-6C8340219BD1}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{F843F348-9006-4D24-8E29-234216C4289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11F57C63-CEC3-494D-AD54-D7F6682678CB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A022F170-1B7F-4899-B397-23FEA77CFA8C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
   <si>
     <t>Model name</t>
   </si>
@@ -71,12 +71,6 @@
     <t>velocity</t>
   </si>
   <si>
-    <t>VS_min</t>
-  </si>
-  <si>
-    <t>VS_max</t>
-  </si>
-  <si>
     <t>TI_min</t>
   </si>
   <si>
@@ -108,6 +102,75 @@
   </si>
   <si>
     <t>crespo_hernandez</t>
+  </si>
+  <si>
+    <t>PPO1</t>
+  </si>
+  <si>
+    <t>PPO2</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Model type</t>
+  </si>
+  <si>
+    <t>Experiment number</t>
+  </si>
+  <si>
+    <t>PPO</t>
+  </si>
+  <si>
+    <t>A2C</t>
+  </si>
+  <si>
+    <t>A2C1</t>
+  </si>
+  <si>
+    <t>A2C2</t>
+  </si>
+  <si>
+    <t>A2C3</t>
+  </si>
+  <si>
+    <t>PPO4</t>
+  </si>
+  <si>
+    <t>PPO5</t>
+  </si>
+  <si>
+    <t>PPO6</t>
+  </si>
+  <si>
+    <t>A2C4</t>
+  </si>
+  <si>
+    <t>A2C5</t>
+  </si>
+  <si>
+    <t>A2C6</t>
+  </si>
+  <si>
+    <t>WS_min</t>
+  </si>
+  <si>
+    <t>WS_max</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>CustomEnv</t>
+  </si>
+  <si>
+    <t>Redo</t>
+  </si>
+  <si>
+    <t>CustomEnv2</t>
   </si>
 </sst>
 </file>
@@ -163,23 +226,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A978AF6-313D-4514-8FEC-BBCA4C9FBB48}" name="Table1" displayName="Table1" ref="F1:S2" totalsRowShown="0">
-  <autoFilter ref="F1:S2" xr:uid="{4A978AF6-313D-4514-8FEC-BBCA4C9FBB48}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{10A7C21A-9101-4652-BEA0-5D8ACFB4877E}" name="turb_type"/>
-    <tableColumn id="2" xr3:uid="{A4D19B41-5C69-4B05-A95A-D7B4B9B0C97E}" name="combination"/>
-    <tableColumn id="3" xr3:uid="{5C788C2B-9B2F-4429-944B-7719C9D3C40C}" name="deflection"/>
-    <tableColumn id="4" xr3:uid="{FC2A2037-2E7D-4571-9FAC-F6D1F9C86A7B}" name="turbulence"/>
-    <tableColumn id="5" xr3:uid="{32F0F3B3-7040-4273-9CA1-A11FEFCB27C8}" name="velocity"/>
-    <tableColumn id="6" xr3:uid="{F5C56131-0F97-4113-8C82-0FDCEE125CAC}" name="VS_min"/>
-    <tableColumn id="7" xr3:uid="{2573833A-3553-4E9C-97B1-B43D97A97590}" name="VS_max"/>
-    <tableColumn id="8" xr3:uid="{9993D99A-DF2E-429E-8BD0-AA1FF44469A8}" name="TI_min"/>
-    <tableColumn id="9" xr3:uid="{6B7FE44E-7B82-4E5B-985B-BDACC388B53F}" name="TI_max"/>
-    <tableColumn id="10" xr3:uid="{19A3309F-C221-4590-95B1-04B41EDD1881}" name="wd_min"/>
-    <tableColumn id="11" xr3:uid="{1D7E9A5A-0069-4437-8D3D-B56DF5C8DB35}" name="wd_max"/>
-    <tableColumn id="12" xr3:uid="{A849759B-404E-4D08-8503-259606847B6C}" name="yaw_max"/>
-    <tableColumn id="13" xr3:uid="{6FB0E6A3-4BD3-4158-9100-CE14DC09EE45}" name="rho"/>
-    <tableColumn id="14" xr3:uid="{EFC4B257-3B12-49A7-BB70-6E2505D0CEFC}" name="seed"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}" name="Table1" displayName="Table1" ref="A1:X13" totalsRowShown="0">
+  <autoFilter ref="A1:X13" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}"/>
+  <tableColumns count="24">
+    <tableColumn id="23" xr3:uid="{BEF6540B-F3B5-4713-9192-3B846C4AC722}" name="Experiment number"/>
+    <tableColumn id="1" xr3:uid="{6B7AF0F7-D9EC-4F8B-BE16-2036DDCA95FD}" name="Model name"/>
+    <tableColumn id="22" xr3:uid="{7063609E-2EB5-4968-84F4-E0E9CD5D444B}" name="Model type"/>
+    <tableColumn id="2" xr3:uid="{D3F2E234-A701-42D1-9B21-4DD7ECEB0843}" name="t_steps"/>
+    <tableColumn id="3" xr3:uid="{5C656030-63E0-4716-ADEF-59E077A91CA1}" name="dist"/>
+    <tableColumn id="4" xr3:uid="{926AFFAE-77CF-42F1-8056-F070683F7111}" name="nx"/>
+    <tableColumn id="5" xr3:uid="{07297F93-1ADF-42FD-9A5E-74A8F52C7FD8}" name="ny"/>
+    <tableColumn id="6" xr3:uid="{A9262A30-BDE9-4AF7-9106-807BCBECDB32}" name="turb_type"/>
+    <tableColumn id="7" xr3:uid="{A915BCE8-E978-49F4-9765-22D72339089F}" name="combination"/>
+    <tableColumn id="8" xr3:uid="{A20C089E-3D29-4B9F-A2AB-7EAA4D3A2629}" name="deflection"/>
+    <tableColumn id="9" xr3:uid="{2BB57031-F426-425A-A312-C4659914C00C}" name="turbulence"/>
+    <tableColumn id="10" xr3:uid="{96276B34-C6AD-4C30-80AA-D0473BBF92F6}" name="velocity"/>
+    <tableColumn id="11" xr3:uid="{89D4B89A-E27C-4A8A-8C18-CCDEBB2B2CB8}" name="WS_min"/>
+    <tableColumn id="12" xr3:uid="{83C29790-E907-418F-BC6F-71C76F3C1452}" name="WS_max"/>
+    <tableColumn id="13" xr3:uid="{D26B58D0-3C02-490D-8E4A-29CB9076263F}" name="TI_min"/>
+    <tableColumn id="14" xr3:uid="{D17FC428-B736-4210-B824-8476462A225B}" name="TI_max"/>
+    <tableColumn id="15" xr3:uid="{FC35291C-CD92-4AD4-8A00-0CD9FC691210}" name="wd_min"/>
+    <tableColumn id="16" xr3:uid="{60A2F2E1-7ED7-43B6-950B-D84ED2A2E79E}" name="wd_max"/>
+    <tableColumn id="17" xr3:uid="{150AE73E-F176-4524-9C3B-2506A3407B72}" name="yaw_max"/>
+    <tableColumn id="18" xr3:uid="{F55CDE11-3E2D-455E-8153-15DF89068DEB}" name="rho"/>
+    <tableColumn id="19" xr3:uid="{F21C41C8-262F-4925-AE56-20960486783A}" name="seed"/>
+    <tableColumn id="24" xr3:uid="{1E0B240B-B62C-4492-AF3E-20A876C08F5E}" name="Environment"/>
+    <tableColumn id="20" xr3:uid="{453CCF40-43F8-482D-8DD9-246D656381CB}" name="Done"/>
+    <tableColumn id="21" xr3:uid="{3F7A58F9-6D69-48B3-8F95-EDFADC634AD9}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -482,143 +555,971 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCB323A-07E7-4F5B-9791-06D91BB47B2D}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="1" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
     <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>6.9</v>
+      </c>
+      <c r="N2">
+        <v>7.1</v>
+      </c>
+      <c r="O2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="Q2">
+        <v>270</v>
+      </c>
+      <c r="R2">
+        <v>315</v>
+      </c>
+      <c r="S2">
+        <v>30</v>
+      </c>
+      <c r="T2">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>6.9</v>
+      </c>
+      <c r="N3">
+        <v>7.1</v>
+      </c>
+      <c r="O3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P3">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="Q3">
+        <v>270</v>
+      </c>
+      <c r="R3">
+        <v>315</v>
+      </c>
+      <c r="S3">
+        <v>30</v>
+      </c>
+      <c r="T3">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>6.9</v>
+      </c>
+      <c r="N4">
+        <v>7.1</v>
+      </c>
+      <c r="O4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P4">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="Q4">
+        <v>270</v>
+      </c>
+      <c r="R4">
+        <v>315</v>
+      </c>
+      <c r="S4">
+        <v>30</v>
+      </c>
+      <c r="T4">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>6.9</v>
+      </c>
+      <c r="N5">
+        <v>7.1</v>
+      </c>
+      <c r="O5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="Q5">
+        <v>270</v>
+      </c>
+      <c r="R5">
+        <v>315</v>
+      </c>
+      <c r="S5">
+        <v>30</v>
+      </c>
+      <c r="T5">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>6.9</v>
+      </c>
+      <c r="N6">
+        <v>7.1</v>
+      </c>
+      <c r="O6">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="Q6">
+        <v>270</v>
+      </c>
+      <c r="R6">
+        <v>315</v>
+      </c>
+      <c r="S6">
+        <v>30</v>
+      </c>
+      <c r="T6">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>6.9</v>
+      </c>
+      <c r="N7">
+        <v>7.1</v>
+      </c>
+      <c r="O7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P7">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="Q7">
+        <v>270</v>
+      </c>
+      <c r="R7">
+        <v>315</v>
+      </c>
+      <c r="S7">
+        <v>30</v>
+      </c>
+      <c r="T7">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U7">
+        <v>7</v>
+      </c>
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q8">
+        <v>270</v>
+      </c>
+      <c r="R8">
+        <v>315</v>
+      </c>
+      <c r="S8">
+        <v>30</v>
+      </c>
+      <c r="T8">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q9">
+        <v>270</v>
+      </c>
+      <c r="R9">
+        <v>315</v>
+      </c>
+      <c r="S9">
+        <v>30</v>
+      </c>
+      <c r="T9">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q10">
+        <v>270</v>
+      </c>
+      <c r="R10">
+        <v>315</v>
+      </c>
+      <c r="S10">
+        <v>30</v>
+      </c>
+      <c r="T10">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>15</v>
-      </c>
-      <c r="M2">
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N2">
+      <c r="P11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O2">
+      <c r="Q11">
         <v>270</v>
       </c>
-      <c r="P2">
+      <c r="R11">
         <v>315</v>
       </c>
-      <c r="Q2">
-        <v>25</v>
-      </c>
-      <c r="R2">
+      <c r="S11">
+        <v>30</v>
+      </c>
+      <c r="T11">
         <v>1.2250000000000001</v>
       </c>
-      <c r="S2">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q12">
+        <v>270</v>
+      </c>
+      <c r="R12">
+        <v>315</v>
+      </c>
+      <c r="S12">
+        <v>30</v>
+      </c>
+      <c r="T12">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q13">
+        <v>270</v>
+      </c>
+      <c r="R13">
+        <v>315</v>
+      </c>
+      <c r="S13">
+        <v>30</v>
+      </c>
+      <c r="T13">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U13">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Overview.xlsx
+++ b/Code/Results/Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24c4bf95f6187469/Uni/Speciale/Thesis/Code/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{F843F348-9006-4D24-8E29-234216C4289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11F57C63-CEC3-494D-AD54-D7F6682678CB}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="8_{F843F348-9006-4D24-8E29-234216C4289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD1314F6-8A26-43DC-8A20-A7CFBB84C2D4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A022F170-1B7F-4899-B397-23FEA77CFA8C}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="47">
   <si>
     <t>Model name</t>
   </si>
   <si>
-    <t>PPO3</t>
-  </si>
-  <si>
     <t>t_steps</t>
   </si>
   <si>
@@ -104,12 +101,6 @@
     <t>crespo_hernandez</t>
   </si>
   <si>
-    <t>PPO1</t>
-  </si>
-  <si>
-    <t>PPO2</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -128,15 +119,6 @@
     <t>A2C</t>
   </si>
   <si>
-    <t>A2C1</t>
-  </si>
-  <si>
-    <t>A2C2</t>
-  </si>
-  <si>
-    <t>A2C3</t>
-  </si>
-  <si>
     <t>PPO4</t>
   </si>
   <si>
@@ -164,13 +146,37 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>CustomEnv</t>
-  </si>
-  <si>
-    <t>Redo</t>
-  </si>
-  <si>
     <t>CustomEnv2</t>
+  </si>
+  <si>
+    <t>Num CPU</t>
+  </si>
+  <si>
+    <t>Note that actions are wrong.</t>
+  </si>
+  <si>
+    <t>SAC1</t>
+  </si>
+  <si>
+    <t>SAC2</t>
+  </si>
+  <si>
+    <t>SAC3</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>TD3</t>
+  </si>
+  <si>
+    <t>TD31</t>
+  </si>
+  <si>
+    <t>TD32</t>
+  </si>
+  <si>
+    <t>TD33</t>
   </si>
 </sst>
 </file>
@@ -226,9 +232,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}" name="Table1" displayName="Table1" ref="A1:X13" totalsRowShown="0">
-  <autoFilter ref="A1:X13" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}" name="Table1" displayName="Table1" ref="A1:Y13" totalsRowShown="0">
+  <autoFilter ref="A1:Y13" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}"/>
+  <tableColumns count="25">
     <tableColumn id="23" xr3:uid="{BEF6540B-F3B5-4713-9192-3B846C4AC722}" name="Experiment number"/>
     <tableColumn id="1" xr3:uid="{6B7AF0F7-D9EC-4F8B-BE16-2036DDCA95FD}" name="Model name"/>
     <tableColumn id="22" xr3:uid="{7063609E-2EB5-4968-84F4-E0E9CD5D444B}" name="Model type"/>
@@ -250,6 +256,7 @@
     <tableColumn id="17" xr3:uid="{150AE73E-F176-4524-9C3B-2506A3407B72}" name="yaw_max"/>
     <tableColumn id="18" xr3:uid="{F55CDE11-3E2D-455E-8153-15DF89068DEB}" name="rho"/>
     <tableColumn id="19" xr3:uid="{F21C41C8-262F-4925-AE56-20960486783A}" name="seed"/>
+    <tableColumn id="25" xr3:uid="{59953711-010A-482F-A017-73FB3A818D7D}" name="Num CPU"/>
     <tableColumn id="24" xr3:uid="{1E0B240B-B62C-4492-AF3E-20A876C08F5E}" name="Environment"/>
     <tableColumn id="20" xr3:uid="{453CCF40-43F8-482D-8DD9-246D656381CB}" name="Done"/>
     <tableColumn id="21" xr3:uid="{3F7A58F9-6D69-48B3-8F95-EDFADC634AD9}" name="Notes"/>
@@ -555,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCB323A-07E7-4F5B-9791-06D91BB47B2D}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,95 +583,98 @@
     <col min="17" max="17" width="10.28515625" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
       <c r="V1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="X1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -676,31 +686,31 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O2">
-        <v>6.9000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P2">
-        <v>7.0999999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q2">
         <v>270</v>
@@ -717,28 +727,28 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -750,31 +760,31 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
       <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="N3">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O3">
-        <v>6.9000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P3">
-        <v>7.0999999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q3">
         <v>270</v>
@@ -791,28 +801,28 @@
       <c r="U3">
         <v>3</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
       <c r="D4">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -824,31 +834,31 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="N4">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O4">
-        <v>6.9000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P4">
-        <v>7.0999999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q4">
         <v>270</v>
@@ -865,28 +875,28 @@
       <c r="U4">
         <v>7</v>
       </c>
-      <c r="V4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4" t="s">
-        <v>43</v>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -898,31 +908,31 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
       <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O5">
-        <v>6.9000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P5">
-        <v>7.0999999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q5">
         <v>270</v>
@@ -939,28 +949,28 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5" t="s">
-        <v>43</v>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -972,31 +982,31 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
       <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="N6">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O6">
-        <v>6.9000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P6">
-        <v>7.0999999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q6">
         <v>270</v>
@@ -1013,28 +1023,28 @@
       <c r="U6">
         <v>3</v>
       </c>
-      <c r="V6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6" t="s">
-        <v>43</v>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1046,31 +1056,31 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
       <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="N7">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>6.9000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P7">
-        <v>7.0999999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q7">
         <v>270</v>
@@ -1087,25 +1097,25 @@
       <c r="U7">
         <v>7</v>
       </c>
-      <c r="V7" t="s">
-        <v>42</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7" t="s">
-        <v>43</v>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1120,19 +1130,19 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
       <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
         <v>20</v>
       </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1161,22 +1171,28 @@
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -1191,19 +1207,19 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1232,22 +1248,25 @@
       <c r="U9">
         <v>3</v>
       </c>
-      <c r="V9" t="s">
-        <v>44</v>
-      </c>
-      <c r="W9">
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -1262,19 +1281,19 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
       <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
         <v>20</v>
       </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10">
         <v>7</v>
@@ -1303,22 +1322,25 @@
       <c r="U10">
         <v>7</v>
       </c>
-      <c r="V10" t="s">
-        <v>44</v>
-      </c>
-      <c r="W10">
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -1333,19 +1355,19 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
       <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11">
         <v>7</v>
@@ -1374,22 +1396,25 @@
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W11">
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1404,19 +1429,19 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
       <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12">
         <v>7</v>
@@ -1445,22 +1470,25 @@
       <c r="U12">
         <v>3</v>
       </c>
-      <c r="V12" t="s">
-        <v>44</v>
-      </c>
-      <c r="W12">
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -1475,19 +1503,19 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
       <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
         <v>20</v>
       </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -1516,10 +1544,13 @@
       <c r="U13">
         <v>7</v>
       </c>
-      <c r="V13" t="s">
-        <v>44</v>
-      </c>
-      <c r="W13">
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Overview.xlsx
+++ b/Code/Results/Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24c4bf95f6187469/Uni/Speciale/Thesis/Code/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="8_{F843F348-9006-4D24-8E29-234216C4289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD1314F6-8A26-43DC-8A20-A7CFBB84C2D4}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="8_{F843F348-9006-4D24-8E29-234216C4289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC2C45DD-5E11-451B-980C-A56637539EBF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A022F170-1B7F-4899-B397-23FEA77CFA8C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
   <si>
     <t>Model name</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Num CPU</t>
-  </si>
-  <si>
-    <t>Note that actions are wrong.</t>
   </si>
   <si>
     <t>SAC1</t>
@@ -565,7 +562,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,10 +665,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -742,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -816,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -890,10 +887,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -964,10 +961,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1038,10 +1035,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1178,10 +1175,7 @@
         <v>36</v>
       </c>
       <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
